--- a/策划文档/【英雄绘卷】登录.xlsx
+++ b/策划文档/【英雄绘卷】登录.xlsx
@@ -16,27 +16,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>第一次进行游客登录</t>
+    <t>第一次登录</t>
   </si>
   <si>
-    <t>之后每次进行游客登录</t>
+    <t>之后登录</t>
   </si>
   <si>
-    <t>点击【游客登录】后，自动生成账号密码</t>
+    <t>【游客登录】</t>
   </si>
   <si>
-    <t>继续点击【游客登录】后，进入游戏</t>
+    <t>自动生成账号密码</t>
   </si>
   <si>
-    <t>第一次进行手机号登录</t>
+    <t>【登录】</t>
   </si>
   <si>
-    <t>之后每次进行手机号登录</t>
+    <t>点击登录进入游戏</t>
   </si>
   <si>
-    <t>点击【手机号】登录，提示输入手机号</t>
+    <t>【注册】</t>
+  </si>
+  <si>
+    <t>检查输入的账号密码是否符合规范</t>
+  </si>
+  <si>
+    <t>符合规范的话，提示注册成功</t>
+  </si>
+  <si>
+    <t>【手机号绑定】</t>
+  </si>
+  <si>
+    <t>检查是否存在账号密码</t>
+  </si>
+  <si>
+    <t>存在的话，进行绑定</t>
+  </si>
+  <si>
+    <t>【绑定】</t>
+  </si>
+  <si>
+    <t>绑定成功</t>
   </si>
 </sst>
 </file>
@@ -49,7 +70,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +92,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,9 +108,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,33 +185,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,37 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,14 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -200,23 +222,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +251,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,67 +317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,31 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,56 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,6 +484,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -528,153 +531,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,15 +768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>45085</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>397510</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -771,7 +785,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="742950" y="257175"/>
+          <a:off x="730885" y="304800"/>
           <a:ext cx="2409825" cy="4191000"/>
           <a:chOff x="3480" y="975"/>
           <a:chExt cx="3795" cy="6600"/>
@@ -822,8 +836,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4545" y="5370"/>
-            <a:ext cx="1499" cy="510"/>
+            <a:off x="5327" y="5370"/>
+            <a:ext cx="1350" cy="510"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -851,7 +865,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>游客登录</a:t>
+              <a:t>注册</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -864,8 +878,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4550" y="6155"/>
-            <a:ext cx="1500" cy="510"/>
+            <a:off x="3748" y="6155"/>
+            <a:ext cx="2880" cy="510"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -995,7 +1009,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>手机号登录</a:t>
+              <a:t>手机号绑定</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -1006,464 +1020,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422275</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="组合 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="755650" y="5137150"/>
-          <a:ext cx="2409825" cy="4191000"/>
-          <a:chOff x="3480" y="975"/>
-          <a:chExt cx="3795" cy="6600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="矩形 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3480" y="975"/>
-            <a:ext cx="3795" cy="6600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="圆角矩形 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4545" y="5370"/>
-            <a:ext cx="1499" cy="510"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>游客登录</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="圆角矩形 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4550" y="6155"/>
-            <a:ext cx="1500" cy="510"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>手机号登录</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>346075</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -1475,7 +1038,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6165850" y="298450"/>
+          <a:off x="7537450" y="298450"/>
           <a:ext cx="2409825" cy="4191000"/>
           <a:chOff x="3480" y="975"/>
           <a:chExt cx="3795" cy="6600"/>
@@ -1620,154 +1183,13 @@
       </xdr:sp>
       <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="圆角矩形 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4545" y="5370"/>
-            <a:ext cx="1499" cy="510"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent2">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent2"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent2"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>游客登录</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
           <xdr:cNvPr id="17" name="圆角矩形 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4550" y="6155"/>
-            <a:ext cx="1500" cy="510"/>
+            <a:off x="4085" y="6155"/>
+            <a:ext cx="2801" cy="510"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2198,469 +1620,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="组合 19"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10902950" y="5102225"/>
-          <a:ext cx="2409825" cy="4191000"/>
-          <a:chOff x="3480" y="975"/>
-          <a:chExt cx="3795" cy="6600"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="矩形 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3480" y="975"/>
-            <a:ext cx="3795" cy="6600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="圆角矩形 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4550" y="6155"/>
-            <a:ext cx="1500" cy="510"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>登录</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="矩形 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4230" y="2205"/>
-            <a:ext cx="2264" cy="435"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="zh-CN">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>账号：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>18888888888</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>306070</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
@@ -2671,10 +1638,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6126480" y="5060315"/>
-          <a:ext cx="2409190" cy="4191000"/>
+          <a:off x="7498080" y="5060315"/>
+          <a:ext cx="2409825" cy="4191000"/>
           <a:chOff x="9720" y="8175"/>
-          <a:chExt cx="3794" cy="6600"/>
+          <a:chExt cx="3795" cy="6600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2834,7 +1801,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4550" y="6155"/>
+              <a:off x="5387" y="4855"/>
               <a:ext cx="1500" cy="510"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -2978,8 +1945,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4230" y="2205"/>
-              <a:ext cx="2473" cy="435"/>
+              <a:off x="4119" y="3449"/>
+              <a:ext cx="2585" cy="435"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3106,7 +2073,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>账号：请输入手机号</a:t>
+                <a:t>请输入手机号</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
             </a:p>
@@ -3120,7 +2087,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10395" y="10140"/>
+            <a:off x="10395" y="11384"/>
             <a:ext cx="2653" cy="435"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3259,14 +2226,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462915</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473710</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>473710</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582295</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
@@ -3279,9 +2246,3286 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8703310" y="3909695"/>
+          <a:ext cx="108585" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7320915" y="3909695"/>
-          <a:ext cx="10795" cy="1150620"/>
+          <a:off x="8195310" y="8124190"/>
+          <a:ext cx="952500" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>绑定</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1180465" y="927100"/>
+          <a:ext cx="1437640" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>s177777</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488315</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1174115" y="1377315"/>
+          <a:ext cx="1437640" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>******</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247015</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="932815" y="3088005"/>
+          <a:ext cx="857250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>游客登录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7884160" y="3095625"/>
+          <a:ext cx="1837055" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>登录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5817235" y="3362325"/>
+          <a:ext cx="1347470" cy="3855085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394970</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>461010</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7938770" y="5537835"/>
+          <a:ext cx="1437640" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账号：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>s177777</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932420" y="5981700"/>
+          <a:ext cx="1437640" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>******</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6395720" y="1721485"/>
+          <a:ext cx="721360" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175895</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5821680" y="1226820"/>
+          <a:ext cx="1212215" cy="356235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="圆角矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9263380" y="5109210"/>
+          <a:ext cx="525145" cy="370840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9413240" y="4457700"/>
+          <a:ext cx="92710" cy="650240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="组合 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13157835" y="244475"/>
+          <a:ext cx="2409190" cy="4190365"/>
+          <a:chOff x="20530" y="7693"/>
+          <a:chExt cx="3824" cy="6374"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="组合 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="20530" y="7693"/>
+            <a:ext cx="3825" cy="6375"/>
+            <a:chOff x="3480" y="975"/>
+            <a:chExt cx="3795" cy="6600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="矩形 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3480" y="975"/>
+              <a:ext cx="3795" cy="6600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="圆角矩形 22"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4215" y="5477"/>
+              <a:ext cx="2300" cy="510"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>登录</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="矩形 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4230" y="2205"/>
+              <a:ext cx="2506" cy="435"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>手机号：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>18888888888</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="矩形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21269" y="9596"/>
+            <a:ext cx="2279" cy="423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>账号：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>s177777</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="矩形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21259" y="10272"/>
+            <a:ext cx="2279" cy="424"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>密码：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>******</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90170</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11748770" y="2339975"/>
+          <a:ext cx="1409065" cy="3700780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512445</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13542645" y="3686810"/>
+          <a:ext cx="1778635" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>找回账号密码</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>433705</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="组合 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13111480" y="5022850"/>
+          <a:ext cx="2409825" cy="4191000"/>
+          <a:chOff x="9720" y="8175"/>
+          <a:chExt cx="3795" cy="6600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="组合 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9720" y="8175"/>
+            <a:ext cx="3795" cy="6600"/>
+            <a:chOff x="3480" y="975"/>
+            <a:chExt cx="3795" cy="6600"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="矩形 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3480" y="975"/>
+              <a:ext cx="3795" cy="6600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="圆角矩形 39"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5387" y="4855"/>
+              <a:ext cx="1500" cy="510"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>获取验证码</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="矩形 40"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4119" y="3449"/>
+              <a:ext cx="2585" cy="435"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>请输入手机号</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="矩形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10395" y="11384"/>
+            <a:ext cx="2653" cy="435"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>验证码：请输入验证码</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>462915</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="圆角矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14864715" y="5045710"/>
+          <a:ext cx="525145" cy="370840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578485</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14294485" y="3970020"/>
+          <a:ext cx="24765" cy="1052195"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15062200" y="4375150"/>
+          <a:ext cx="92710" cy="650240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3597,10 +5841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3608,33 +5852,74 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:14">
+    <row r="6" spans="6:6">
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="s">
+    </row>
+    <row r="7" spans="7:16">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="2" t="s">
+    </row>
+    <row r="8" spans="17:17">
+      <c r="Q8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="1" t="s">
+    <row r="10" spans="6:6">
+      <c r="F10" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="28" spans="16:16">
+      <c r="P28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="17:17">
+      <c r="Q29" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3651,10 +5936,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
